--- a/trunk/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3_ENG.xlsx
+++ b/trunk/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3_ENG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="560">
   <si>
     <t>Expected results</t>
   </si>
@@ -1968,30 +1968,9 @@
     <t>TC.26.1</t>
   </si>
   <si>
-    <t>Quản trị người dùng</t>
-  </si>
-  <si>
-    <t>File cấu hình tập trung và phân tán</t>
-  </si>
-  <si>
     <t>TO.05</t>
   </si>
   <si>
-    <t>Gửi index</t>
-  </si>
-  <si>
-    <t>Thực hiện tạo index</t>
-  </si>
-  <si>
-    <t>Thực hiện cập nhật index</t>
-  </si>
-  <si>
-    <t>Cho phép tạo file index hỗ trợ cho việc tìm kiếm</t>
-  </si>
-  <si>
-    <t>Cho phép cập nhật lại index hỗ trợ cho việc tìm kiếm</t>
-  </si>
-  <si>
     <t>Gửi câu hỏi sang công cụ quản trị bộ từ điển - Nhận câu hỏi từ công cụ hiển thị</t>
   </si>
   <si>
@@ -2001,60 +1980,6 @@
     <t>Câu hỏi được gởi từ công cụ hiển thị vào danh sách chưa trả lời của công cụ quản trị</t>
   </si>
   <si>
-    <t>Quản lí quyền của người dùng</t>
-  </si>
-  <si>
-    <t>Cho phép xem tất cả người dùng đã đăng kí và chỉnh sửa quyền cho người dùng</t>
-  </si>
-  <si>
-    <t>Hiển thị chức năng theo quyền</t>
-  </si>
-  <si>
-    <t>Đối với admin: hiển thị đầy đủ chức năng
-Đối với User: Hạn chế một số chưc năng liên quan đến hệ thống</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Người dùng đã đăng nhập vào trang web bằng tài khoản admin</t>
-  </si>
-  <si>
-    <t>1. Chọn cấu hình</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách người dùng đã đăng kí tài khoản</t>
-  </si>
-  <si>
-    <t>2. Chọn cấu hình người dùng</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách người dùng đã đăng kí tài khoản trên trang web
-Thông tin hiển thị bao gồm: tên người dùng, tài khoản, Email, quyền</t>
-  </si>
-  <si>
-    <t>Đăng nhập tài khoản quyền admin</t>
-  </si>
-  <si>
-    <t>Trang web hiển thị đầy đủ chức năng</t>
-  </si>
-  <si>
-    <t>Đăng nhập tài khoản quyền user</t>
-  </si>
-  <si>
-    <t>Trang web ẩn các chức năng: cấu hình, tạo index
-Đối với những câu hỏi tài khoản đó không trả lời, tài khoản chỉ có thể xem, không được chỉnh sửa</t>
-  </si>
-  <si>
-    <t>1. Mở trang web</t>
-  </si>
-  <si>
-    <t>2. Điền thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>3. Điền thông tin mật khẩu</t>
-  </si>
-  <si>
-    <t>4. Đăng nhập</t>
-  </si>
-  <si>
     <t>admin123</t>
   </si>
   <si>
@@ -2076,92 +2001,164 @@
     <t>Số lượng testcase passed đạt mức 94% phù hợp với chỉ tiêu đặt ra ở mức GOOD (&gt;80%).</t>
   </si>
   <si>
-    <t>Tên đăng nhập người dùng chỉ được phép sử dụng những ký tự [a-z] / [A-Z] / [0-9]
-Mật khẩu người dùng phải từ 6 ký tự trở lên, bao gồm  [a-z] / [A-Z] / [0-9] và ký tự đặc biệt
-Email phải có kí tự '@'</t>
-  </si>
-  <si>
-    <t>Trang web xác thực thông tin của tài khoản trong quá trình đăng kí</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Trong cơ sở dữ liệu đã tồn tại tài khoản 'phuta1'</t>
-  </si>
-  <si>
-    <t>1. Chọn đăng kí</t>
-  </si>
-  <si>
-    <t>2. Điền thông tin tài khoản @Username</t>
-  </si>
-  <si>
-    <t>Case FALSE:
-Trang web hiển thị thông báo tài khoản không hợp lệ</t>
-  </si>
-  <si>
-    <t>3. Điền thông tin tài khoản @Password</t>
-  </si>
-  <si>
-    <t>Case FALSE:
-Trang web hiển thị thông báo mật khẩu không hợp lệ</t>
-  </si>
-  <si>
-    <t>4. Điền thông tin Email @Email</t>
-  </si>
-  <si>
-    <t>Case FALSE:
-Trang web hiển thị thông báo Email không hợp lệ</t>
-  </si>
-  <si>
-    <t>5. Điền thông tin họ tên</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo tài khoản đã tồn tại nếu Username là 'phuta1'</t>
-  </si>
-  <si>
-    <t>6. Đăng kí</t>
-  </si>
-  <si>
-    <t>Câu trả lời được gởi đến mail của người gởi</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Người dùng đã đăng nhập vào trang web. 
-1. Chọn danh sách chưa trả lời
-2. Chọn một câu hỏi được gởi từ địa chỉ mail: nguyephanxuanhuy@gmail.com
-3. Biên soạn câu trả lời
-4. Chọn 'Gởi'
-5. Xác nhận 'Gởi'</t>
-  </si>
-  <si>
-    <t>Thực hiện gửi index qua công cụ hiển thị</t>
-  </si>
-  <si>
     <t>TC.05.1</t>
   </si>
   <si>
+    <t>Create index</t>
+  </si>
+  <si>
+    <t>Update index</t>
+  </si>
+  <si>
+    <t>Send index to DDS</t>
+  </si>
+  <si>
+    <t>TERM</t>
+  </si>
+  <si>
+    <t>Dictionary management system</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>Dictionary display system</t>
+  </si>
+  <si>
+    <t>DDS</t>
+  </si>
+  <si>
+    <t>Config : centralization &amp; dispersal</t>
+  </si>
+  <si>
+    <t>User management</t>
+  </si>
+  <si>
+    <t>Manage user authority</t>
+  </si>
+  <si>
+    <t>Display functions follow user's author</t>
+  </si>
+  <si>
+    <t>Check info register</t>
+  </si>
+  <si>
+    <t>Send answer</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Create index</t>
-  </si>
-  <si>
-    <t>Update index</t>
-  </si>
-  <si>
-    <t>Send index to DDS</t>
-  </si>
-  <si>
-    <t>TERM</t>
-  </si>
-  <si>
-    <t>Dictionary management system</t>
-  </si>
-  <si>
-    <t>DMS</t>
-  </si>
-  <si>
-    <t>Dictionary display system</t>
-  </si>
-  <si>
-    <t>DDS</t>
+    <t>Lets see all registered users and edit user's author</t>
+  </si>
+  <si>
+    <t>For admin: fully functional display 
+For User: Limit the number of functions related to system</t>
+  </si>
+  <si>
+    <t>Username users are allowed to use only the characters [az] / [AZ] / [0-9] 
+User password must be at least 6 characters or more, including [az] / [AZ] / [0-9] and special characters 
+Email must have the character '@'</t>
+  </si>
+  <si>
+    <t>The answer is sent to the questioner</t>
+  </si>
+  <si>
+    <t>Displays a list of users registered accounts</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: The user has logged into the site with admin account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Choose configuration </t>
+  </si>
+  <si>
+    <t>2. Choose a user configuration</t>
+  </si>
+  <si>
+    <t>Display a list of users registered on the site account 
+Information displayed includes: user name, account, email, authority</t>
+  </si>
+  <si>
+    <t>Login by Admin account</t>
+  </si>
+  <si>
+    <t>Login by User account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Opens sites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Complete account information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Complete password information </t>
+  </si>
+  <si>
+    <t>4. Sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fully functional display </t>
+  </si>
+  <si>
+    <t>Website offline functionality: configuration, create index 
+For questions not answered that account, the account can not view,can not edit</t>
+  </si>
+  <si>
+    <t>Website authentication of account information in the application process</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In the database already exists account 'phuta1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Choose register </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Complete the account @ Username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Complete information Email @ Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Complete the name </t>
+  </si>
+  <si>
+    <t>6. Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.  Enter account information @Password </t>
+  </si>
+  <si>
+    <t>Case FALSE: 
+The site displays a message not valid account</t>
+  </si>
+  <si>
+    <t>Case FALSE: 
+The website displays the message Invalid password</t>
+  </si>
+  <si>
+    <t>Case FALSE: 
+The website displays the message Invalid Email</t>
+  </si>
+  <si>
+    <t>Show notification if the account already exists Username is 'phuta1'</t>
+  </si>
+  <si>
+    <t>Display error message when no answer sent to the questioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Email notifications are not sent </t>
+  </si>
+  <si>
+    <t>Pre-Conditions: The user has logged into the site. 
+1. Choose list-unanswered
+2. Choose a question sent from the email address: nguyephanxuanhuy@gmail.com 
+3. Compiled answers 
+4. Choose 'Send' 
+5. Confirmation 'Send'</t>
   </si>
 </sst>
 </file>
@@ -2554,7 +2551,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2794,17 +2791,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2824,14 +2818,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2841,6 +2838,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3611,7 +3611,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5394,10 +5394,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A4:D28"/>
+  <dimension ref="A4:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5424,8 +5424,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
-        <v>27</v>
+      <c r="A5" s="80" t="str">
+        <f>'Testcase Specification'!B11</f>
+        <v>Create index</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -5435,37 +5436,40 @@
       <c r="A6" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>504</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>506</v>
+      <c r="B6" s="74" t="str">
+        <f>'Testcase Specification'!C12</f>
+        <v>Create index</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>527</v>
       </c>
       <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
-        <v>28</v>
+      <c r="A7" s="80" t="str">
+        <f>'Testcase Specification'!B14</f>
+        <v>Update index</v>
       </c>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>507</v>
+      <c r="B8" s="76" t="str">
+        <f>'Testcase Specification'!C15</f>
+        <v>Update index</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>527</v>
       </c>
       <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
@@ -5476,16 +5480,17 @@
         <v>172</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
-        <v>503</v>
+      <c r="A11" s="80" t="str">
+        <f>'Testcase Specification'!B18</f>
+        <v>Send index to DDS</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -5495,15 +5500,19 @@
       <c r="A12" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>550</v>
-      </c>
-      <c r="C12" s="76"/>
+      <c r="B12" s="74" t="str">
+        <f>'Testcase Specification'!C19</f>
+        <v>Send index to DDS</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>527</v>
+      </c>
       <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
-        <v>501</v>
+      <c r="A13" s="80" t="str">
+        <f>'Testcase Specification'!B21</f>
+        <v>Config : centralization &amp; dispersal</v>
       </c>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -5514,26 +5523,30 @@
         <v>107</v>
       </c>
       <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="C14" s="103" t="s">
+        <v>527</v>
+      </c>
       <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
-        <v>500</v>
+      <c r="A15" s="80" t="str">
+        <f>'Testcase Specification'!B23</f>
+        <v>User management</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>511</v>
+        <v>500</v>
+      </c>
+      <c r="B16" s="42" t="str">
+        <f>'Testcase Specification'!C24</f>
+        <v>Manage user authority</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D16" s="42"/>
     </row>
@@ -5541,37 +5554,41 @@
       <c r="A17" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>513</v>
+      <c r="B17" s="42" t="str">
+        <f>'Testcase Specification'!C28</f>
+        <v>Display functions follow user's author</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
-        <v>174</v>
+      <c r="A18" s="80" t="str">
+        <f>'Testcase Specification'!B37</f>
+        <v>Register</v>
       </c>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
     </row>
-    <row r="19" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>181</v>
+      <c r="B19" s="7" t="str">
+        <f>'Testcase Specification'!C38</f>
+        <v>Check info register</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
-        <v>25</v>
+      <c r="A20" s="80" t="str">
+        <f>'Testcase Specification'!B46</f>
+        <v>Send answer</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
@@ -5581,39 +5598,40 @@
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>153</v>
+      <c r="B21" s="42" t="str">
+        <f>'Testcase Specification'!C47</f>
+        <v>Send answer</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="D21" s="42"/>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="100" t="s">
+        <v>515</v>
+      </c>
+      <c r="D25" s="101"/>
+    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="100" t="s">
-        <v>556</v>
-      </c>
-      <c r="D26" s="101"/>
+      <c r="C26" s="102" t="s">
+        <v>516</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="102" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="102" t="s">
-        <v>559</v>
-      </c>
-      <c r="D28" s="102" t="s">
-        <v>560</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A9:D9"/>
@@ -5636,8 +5654,8 @@
   </sheetPr>
   <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5654,84 +5672,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="88"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="54">
         <f>COUNTIF(I11:I36,"&gt;a0")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="54">
         <f>COUNTIF(H11:H36,"Passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="54">
         <f>COUNTIF(H11:H36,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="89" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="54">
         <f>COUNTIF(H11:H20,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -5763,9 +5781,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B11" s="61" t="s">
-        <v>27</v>
+        <v>512</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -5776,12 +5794,12 @@
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -5791,38 +5809,20 @@
       <c r="I12" s="50"/>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
-        <v>28</v>
+        <v>513</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -5833,12 +5833,12 @@
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
@@ -5848,38 +5848,20 @@
       <c r="I15" s="50"/>
       <c r="J15" s="51"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>552</v>
-      </c>
+    <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="61" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -5890,9 +5872,9 @@
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B18" s="61" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -5903,12 +5885,12 @@
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B19" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -5918,38 +5900,20 @@
       <c r="I19" s="50"/>
       <c r="J19" s="51"/>
     </row>
-    <row r="20" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B21" s="61" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
@@ -5960,38 +5924,20 @@
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
     </row>
-    <row r="22" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>552</v>
-      </c>
+    <row r="22" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -6004,10 +5950,10 @@
     </row>
     <row r="24" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="44"/>
@@ -6018,58 +5964,62 @@
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="91" t="s">
-        <v>551</v>
+      <c r="B25" s="90" t="s">
+        <v>511</v>
       </c>
       <c r="C25" s="81"/>
-      <c r="D25" s="94" t="s">
-        <v>517</v>
+      <c r="D25" s="93" t="s">
+        <v>532</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="45"/>
+      <c r="H25" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="81"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="82"/>
-      <c r="D26" s="95"/>
+      <c r="D26" s="94"/>
       <c r="E26" s="33" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="82"/>
       <c r="H26" s="85"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="82"/>
     </row>
     <row r="27" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="93"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="83"/>
-      <c r="D27" s="96"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="33" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="G27" s="83"/>
       <c r="H27" s="86"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="45"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="83"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="s">
         <v>121</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="44"/>
@@ -6080,136 +6030,144 @@
       <c r="J28" s="44"/>
     </row>
     <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="90" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="81"/>
-      <c r="D29" s="91" t="s">
-        <v>520</v>
+      <c r="D29" s="90" t="s">
+        <v>537</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="45"/>
+      <c r="H29" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="92"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="82"/>
-      <c r="D30" s="92"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="33" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="G30" s="82"/>
       <c r="H30" s="85"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="45"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="82"/>
     </row>
     <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="82"/>
-      <c r="D31" s="92"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="33" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="G31" s="82"/>
       <c r="H31" s="85"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="45"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="82"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="93"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="83"/>
-      <c r="D32" s="93"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="45" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="G32" s="83"/>
       <c r="H32" s="86"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="45"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="83"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="90" t="s">
         <v>266</v>
       </c>
       <c r="C33" s="81"/>
-      <c r="D33" s="91" t="s">
-        <v>522</v>
+      <c r="D33" s="90" t="s">
+        <v>538</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="45"/>
+      <c r="H33" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="81"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="92"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="82"/>
-      <c r="D34" s="92"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="33" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="G34" s="82"/>
       <c r="H34" s="85"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="45"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="82"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="92"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="82"/>
-      <c r="D35" s="92"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="33" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F35" s="54">
         <v>123456</v>
       </c>
       <c r="G35" s="82"/>
       <c r="H35" s="85"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="45"/>
-    </row>
-    <row r="36" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="93"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="82"/>
+    </row>
+    <row r="36" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B36" s="92"/>
       <c r="C36" s="83"/>
-      <c r="D36" s="93"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="45" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="G36" s="83"/>
       <c r="H36" s="86"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="45"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="83"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="61" t="s">
-        <v>174</v>
+        <v>526</v>
       </c>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
@@ -6225,7 +6183,7 @@
         <v>129</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>181</v>
+        <v>524</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
@@ -6240,109 +6198,113 @@
         <v>131</v>
       </c>
       <c r="C39" s="81"/>
-      <c r="D39" s="94" t="s">
-        <v>536</v>
+      <c r="D39" s="93" t="s">
+        <v>545</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="97"/>
+      <c r="H39" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="87" t="s">
+        <v>204</v>
+      </c>
       <c r="J39" s="45"/>
     </row>
     <row r="40" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
       <c r="C40" s="82"/>
-      <c r="D40" s="95"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="64" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="82"/>
       <c r="H40" s="85"/>
-      <c r="I40" s="98"/>
+      <c r="I40" s="88"/>
       <c r="J40" s="45"/>
     </row>
     <row r="41" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="82"/>
       <c r="C41" s="82"/>
-      <c r="D41" s="95"/>
+      <c r="D41" s="94"/>
       <c r="E41" s="71" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G41" s="82"/>
       <c r="H41" s="85"/>
-      <c r="I41" s="98"/>
+      <c r="I41" s="88"/>
       <c r="J41" s="45"/>
     </row>
     <row r="42" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="82"/>
       <c r="C42" s="82"/>
-      <c r="D42" s="95"/>
+      <c r="D42" s="94"/>
       <c r="E42" s="71" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G42" s="82"/>
       <c r="H42" s="85"/>
-      <c r="I42" s="98"/>
+      <c r="I42" s="88"/>
       <c r="J42" s="45"/>
     </row>
     <row r="43" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="82"/>
       <c r="C43" s="82"/>
-      <c r="D43" s="95"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="71" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="G43" s="82"/>
       <c r="H43" s="85"/>
-      <c r="I43" s="98"/>
+      <c r="I43" s="88"/>
       <c r="J43" s="45"/>
     </row>
     <row r="44" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="82"/>
       <c r="C44" s="82"/>
-      <c r="D44" s="95"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="64" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="82"/>
       <c r="H44" s="85"/>
-      <c r="I44" s="98"/>
+      <c r="I44" s="88"/>
       <c r="J44" s="45"/>
     </row>
     <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="83"/>
       <c r="C45" s="83"/>
-      <c r="D45" s="96"/>
+      <c r="D45" s="95"/>
       <c r="E45" s="64" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="G45" s="83"/>
       <c r="H45" s="86"/>
-      <c r="I45" s="99"/>
+      <c r="I45" s="89"/>
       <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="61" t="s">
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -6358,7 +6320,7 @@
         <v>137</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>153</v>
+        <v>525</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
@@ -6374,27 +6336,41 @@
       </c>
       <c r="C48" s="75"/>
       <c r="D48" s="33" t="s">
-        <v>159</v>
+        <v>557</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>157</v>
+        <v>558</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="40"/>
-      <c r="I48" s="33"/>
+      <c r="H48" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="J48" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J20"/>
-  <mergeCells count="32">
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
+  <mergeCells count="35">
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="I39:I45"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
@@ -6410,20 +6386,13 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="G39:G45"/>
     <mergeCell ref="H39:H45"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H48">
     <cfRule type="containsText" dxfId="63" priority="510" operator="containsText" text="Not Applicable">
@@ -6516,11 +6485,6 @@
       <formula1>"Chau Le, Dao Khau, Khang Huynh, Huy Ngo, Huy Nguyen, Phu Ta"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E41" location="Parameter!A1" display="2. Điền thông tin tài khoản @Username"/>
-    <hyperlink ref="E42" location="Parameter!A1" display="3. Điền thông tin tài khoản @Password"/>
-    <hyperlink ref="E43" location="Parameter!A1" display="4. Điền thông tin Email @Email"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6549,13 +6513,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="88"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -6565,11 +6529,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -6579,55 +6543,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="89" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
@@ -10058,8 +10022,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10069,22 +10033,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -10092,7 +10056,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="70" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">

--- a/trunk/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3_ENG.xlsx
+++ b/trunk/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3_ENG.xlsx
@@ -2761,6 +2761,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2769,6 +2775,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2781,24 +2793,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2830,17 +2824,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3611,7 +3611,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5073,11 +5073,11 @@
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -5424,13 +5424,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="str">
+      <c r="A5" s="84" t="str">
         <f>'Testcase Specification'!B11</f>
         <v>Create index</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
@@ -5440,19 +5440,19 @@
         <f>'Testcase Specification'!C12</f>
         <v>Create index</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="78" t="s">
         <v>527</v>
       </c>
       <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="str">
+      <c r="A7" s="84" t="str">
         <f>'Testcase Specification'!B14</f>
         <v>Update index</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
@@ -5462,18 +5462,18 @@
         <f>'Testcase Specification'!C15</f>
         <v>Update index</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="78" t="s">
         <v>527</v>
       </c>
       <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="84" t="s">
         <v>501</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="1:4" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
@@ -5488,13 +5488,13 @@
       <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="str">
+      <c r="A11" s="84" t="str">
         <f>'Testcase Specification'!B18</f>
         <v>Send index to DDS</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
@@ -5504,38 +5504,38 @@
         <f>'Testcase Specification'!C19</f>
         <v>Send index to DDS</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="78" t="s">
         <v>527</v>
       </c>
       <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="str">
+      <c r="A13" s="84" t="str">
         <f>'Testcase Specification'!B21</f>
         <v>Config : centralization &amp; dispersal</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>107</v>
       </c>
       <c r="B14" s="74"/>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="78" t="s">
         <v>527</v>
       </c>
       <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="str">
+      <c r="A15" s="84" t="str">
         <f>'Testcase Specification'!B23</f>
         <v>User management</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
@@ -5564,13 +5564,13 @@
       <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="str">
+      <c r="A18" s="84" t="str">
         <f>'Testcase Specification'!B37</f>
         <v>Register</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
     </row>
     <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
@@ -5586,13 +5586,13 @@
       <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="str">
+      <c r="A20" s="84" t="str">
         <f>'Testcase Specification'!B46</f>
         <v>Send answer</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
@@ -5608,24 +5608,24 @@
       <c r="D21" s="42"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="100" t="s">
+      <c r="C25" s="82" t="s">
         <v>515</v>
       </c>
-      <c r="D25" s="101"/>
+      <c r="D25" s="83"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="77" t="s">
         <v>516</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="77" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="77" t="s">
         <v>518</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="77" t="s">
         <v>519</v>
       </c>
     </row>
@@ -5654,8 +5654,8 @@
   </sheetPr>
   <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5672,81 +5672,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="95"/>
       <c r="D2" s="54">
-        <f>COUNTIF(I11:I36,"&gt;a0")</f>
-        <v>3</v>
+        <f>COUNTIF(I11:I48,"&gt;a0")</f>
+        <v>5</v>
       </c>
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="97"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="54">
-        <f>COUNTIF(H11:H36,"Passed")</f>
-        <v>3</v>
+        <f>COUNTIF(H11:H48,"Passed")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="54">
         <f>COUNTIF(H11:H36,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="54">
         <f>COUNTIF(H11:H20,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99" t="s">
+      <c r="A8" s="94"/>
+      <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -5964,55 +5964,55 @@
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="88" t="s">
         <v>511</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="93" t="s">
+      <c r="C25" s="85"/>
+      <c r="D25" s="91" t="s">
         <v>532</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>533</v>
       </c>
       <c r="F25" s="45"/>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="87" t="s">
+      <c r="I25" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="81"/>
+      <c r="J25" s="85"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="94"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="33" t="s">
         <v>534</v>
       </c>
       <c r="F26" s="45"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="82"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="95"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="33" t="s">
         <v>535</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="83"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="87"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="s">
@@ -6030,140 +6030,140 @@
       <c r="J28" s="44"/>
     </row>
     <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="90" t="s">
+      <c r="C29" s="85"/>
+      <c r="D29" s="88" t="s">
         <v>537</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>539</v>
       </c>
       <c r="F29" s="45"/>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="84" t="s">
+      <c r="H29" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="87" t="s">
+      <c r="I29" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="81"/>
+      <c r="J29" s="85"/>
     </row>
     <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="91"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="89"/>
       <c r="E30" s="33" t="s">
         <v>540</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>504</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="82"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="91"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="89"/>
       <c r="E31" s="33" t="s">
         <v>541</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>504</v>
       </c>
-      <c r="G31" s="82"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="82"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="92"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="92"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="45" t="s">
         <v>542</v>
       </c>
       <c r="F32" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="G32" s="83"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="83"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="87"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="90" t="s">
+      <c r="C33" s="85"/>
+      <c r="D33" s="88" t="s">
         <v>538</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>539</v>
       </c>
       <c r="F33" s="45"/>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="87" t="s">
+      <c r="I33" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="J33" s="81"/>
+      <c r="J33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="91"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="89"/>
       <c r="E34" s="33" t="s">
         <v>540</v>
       </c>
       <c r="F34" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="82"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="91"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="91"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="89"/>
       <c r="E35" s="33" t="s">
         <v>541</v>
       </c>
       <c r="F35" s="54">
         <v>123456</v>
       </c>
-      <c r="G35" s="82"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="82"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="92"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="92"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="90"/>
       <c r="E36" s="45" t="s">
         <v>542</v>
       </c>
       <c r="F36" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="83"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="87"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="61" t="s">
@@ -6194,112 +6194,112 @@
       <c r="J38" s="51"/>
     </row>
     <row r="39" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="93" t="s">
+      <c r="C39" s="85"/>
+      <c r="D39" s="91" t="s">
         <v>545</v>
       </c>
       <c r="E39" s="64" t="s">
         <v>546</v>
       </c>
       <c r="F39" s="33"/>
-      <c r="G39" s="81" t="s">
+      <c r="G39" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="87" t="s">
+      <c r="I39" s="98" t="s">
         <v>204</v>
       </c>
       <c r="J39" s="45"/>
     </row>
     <row r="40" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="94"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="64" t="s">
         <v>547</v>
       </c>
       <c r="F40" s="33"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="88"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="99"/>
       <c r="J40" s="45"/>
     </row>
     <row r="41" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="94"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="71" t="s">
         <v>548</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="G41" s="82"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="88"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="99"/>
       <c r="J41" s="45"/>
     </row>
     <row r="42" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="94"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="71" t="s">
         <v>552</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="G42" s="82"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="88"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="99"/>
       <c r="J42" s="45"/>
     </row>
     <row r="43" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="94"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="92"/>
       <c r="E43" s="71" t="s">
         <v>549</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="G43" s="82"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="88"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="99"/>
       <c r="J43" s="45"/>
     </row>
     <row r="44" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="94"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="64" t="s">
         <v>550</v>
       </c>
       <c r="F44" s="33"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="88"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="99"/>
       <c r="J44" s="45"/>
     </row>
     <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="95"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="64" t="s">
         <v>551</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="G45" s="83"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="89"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="100"/>
       <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -6315,7 +6315,7 @@
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
     </row>
-    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="48" t="s">
         <v>137</v>
       </c>
@@ -6330,7 +6330,7 @@
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
     </row>
-    <row r="48" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
         <v>142</v>
       </c>
@@ -6358,19 +6358,12 @@
   </sheetData>
   <autoFilter ref="B10:J20"/>
   <mergeCells count="35">
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
     <mergeCell ref="I39:I45"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
@@ -6387,12 +6380,19 @@
     <mergeCell ref="G39:G45"/>
     <mergeCell ref="H39:H45"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="H48">
     <cfRule type="containsText" dxfId="63" priority="510" operator="containsText" text="Not Applicable">
@@ -6513,13 +6513,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="95"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -6529,11 +6529,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="97"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -6543,55 +6543,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99" t="s">
+      <c r="A8" s="94"/>
+      <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>

--- a/trunk/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3_ENG.xlsx
+++ b/trunk/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3_ENG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -1936,9 +1936,6 @@
     <t>TC.25.6</t>
   </si>
   <si>
-    <t>Các testcase Failed: đã có hướng giải quyết nhưng không đủ thời gian,chuyển qua Sprint tiếp theo để hoàn thiện sản phẩm.</t>
-  </si>
-  <si>
     <t>TO.26</t>
   </si>
   <si>
@@ -1986,21 +1983,6 @@
     <t>clone02</t>
   </si>
   <si>
-    <t>Số lượng Testcase: 53</t>
-  </si>
-  <si>
-    <t>Số lượng testcase passed: 50 (chiếm 94%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase failed: 3 (chiếm 6%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase block: 0 (chiếm 0%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase passed đạt mức 94% phù hợp với chỉ tiêu đặt ra ở mức GOOD (&gt;80%).</t>
-  </si>
-  <si>
     <t>TC.05.1</t>
   </si>
   <si>
@@ -2159,6 +2141,24 @@
 3. Compiled answers 
 4. Choose 'Send' 
 5. Confirmation 'Send'</t>
+  </si>
+  <si>
+    <t>Total Testcase: 5</t>
+  </si>
+  <si>
+    <t>Testcase passed: 5 ( 100%)</t>
+  </si>
+  <si>
+    <t>Số lượng testcase failed: 0</t>
+  </si>
+  <si>
+    <t>Số lượng testcase block: 0</t>
+  </si>
+  <si>
+    <t>Testcase Failed: have solutions but not enough time, switch to Sprint next product improvements.</t>
+  </si>
+  <si>
+    <t>Testcase passed approximate 100% accordance with the criteria set out in level GOOD (&gt;80%).</t>
   </si>
 </sst>
 </file>
@@ -2794,6 +2794,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2823,24 +2841,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3350,6 +3350,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3570,7 +3571,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3894,6 +3897,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5441,7 +5445,7 @@
         <v>Create index</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D6" s="74"/>
     </row>
@@ -5463,13 +5467,13 @@
         <v>Update index</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -5480,10 +5484,10 @@
         <v>172</v>
       </c>
       <c r="B10" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="D10" s="42"/>
     </row>
@@ -5505,7 +5509,7 @@
         <v>Send index to DDS</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D12" s="74"/>
     </row>
@@ -5524,7 +5528,7 @@
       </c>
       <c r="B14" s="74"/>
       <c r="C14" s="78" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D14" s="74"/>
     </row>
@@ -5539,14 +5543,14 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B16" s="42" t="str">
         <f>'Testcase Specification'!C24</f>
         <v>Manage user authority</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D16" s="42"/>
     </row>
@@ -5559,7 +5563,7 @@
         <v>Display functions follow user's author</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D17" s="42"/>
     </row>
@@ -5581,7 +5585,7 @@
         <v>Check info register</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D19" s="42"/>
     </row>
@@ -5603,30 +5607,30 @@
         <v>Send answer</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D21" s="42"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" s="82" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D25" s="83"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" s="77" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="77" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5654,8 +5658,8 @@
   </sheetPr>
   <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5672,13 +5676,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="54">
         <f>COUNTIF(I11:I48,"&gt;a0")</f>
         <v>5</v>
@@ -5686,11 +5690,11 @@
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>5</v>
@@ -5698,55 +5702,55 @@
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="95"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="96"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="54">
         <f>COUNTIF(H11:H48,"Passed")</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="96" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="54">
         <f>COUNTIF(H11:H36,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="96" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="54">
         <f>COUNTIF(H11:H20,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -5783,7 +5787,7 @@
     </row>
     <row r="11" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B11" s="61" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -5799,7 +5803,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -5822,7 +5826,7 @@
     </row>
     <row r="14" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -5838,7 +5842,7 @@
         <v>85</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
@@ -5861,7 +5865,7 @@
     </row>
     <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="61" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -5874,7 +5878,7 @@
     </row>
     <row r="18" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B18" s="61" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -5890,7 +5894,7 @@
         <v>86</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -5913,7 +5917,7 @@
     </row>
     <row r="21" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B21" s="61" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
@@ -5937,7 +5941,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -5950,10 +5954,10 @@
     </row>
     <row r="24" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="44"/>
@@ -5964,54 +5968,54 @@
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="88" t="s">
-        <v>511</v>
+      <c r="B25" s="94" t="s">
+        <v>505</v>
       </c>
       <c r="C25" s="85"/>
-      <c r="D25" s="91" t="s">
-        <v>532</v>
+      <c r="D25" s="97" t="s">
+        <v>526</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="101" t="s">
+      <c r="H25" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="98" t="s">
+      <c r="I25" s="91" t="s">
         <v>104</v>
       </c>
       <c r="J25" s="85"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="89"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="86"/>
-      <c r="D26" s="92"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="33" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="86"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="99"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="92"/>
       <c r="J26" s="86"/>
     </row>
     <row r="27" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="87"/>
-      <c r="D27" s="93"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="33" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G27" s="87"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="100"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="93"/>
       <c r="J27" s="87"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -6019,7 +6023,7 @@
         <v>121</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="44"/>
@@ -6030,144 +6034,144 @@
       <c r="J28" s="44"/>
     </row>
     <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="94" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="85"/>
-      <c r="D29" s="88" t="s">
-        <v>537</v>
+      <c r="D29" s="94" t="s">
+        <v>531</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="101" t="s">
+      <c r="H29" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="98" t="s">
+      <c r="I29" s="91" t="s">
         <v>104</v>
       </c>
       <c r="J29" s="85"/>
     </row>
     <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="89"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="86"/>
-      <c r="D30" s="89"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="33" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G30" s="86"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="99"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="92"/>
       <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="89"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="86"/>
-      <c r="D31" s="89"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="33" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G31" s="86"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="99"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="92"/>
       <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="87"/>
-      <c r="D32" s="90"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="45" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="G32" s="87"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="100"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="93"/>
       <c r="J32" s="87"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="94" t="s">
         <v>266</v>
       </c>
       <c r="C33" s="85"/>
-      <c r="D33" s="88" t="s">
-        <v>538</v>
+      <c r="D33" s="94" t="s">
+        <v>532</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="101" t="s">
+      <c r="H33" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="98" t="s">
+      <c r="I33" s="91" t="s">
         <v>104</v>
       </c>
       <c r="J33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="89"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="86"/>
-      <c r="D34" s="89"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="33" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G34" s="86"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="99"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="92"/>
       <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="89"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="86"/>
-      <c r="D35" s="89"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="33" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F35" s="54">
         <v>123456</v>
       </c>
       <c r="G35" s="86"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="99"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="92"/>
       <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="87"/>
-      <c r="D36" s="90"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="45" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G36" s="87"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="100"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="93"/>
       <c r="J36" s="87"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="61" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
@@ -6183,7 +6187,7 @@
         <v>129</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
@@ -6198,20 +6202,20 @@
         <v>131</v>
       </c>
       <c r="C39" s="85"/>
-      <c r="D39" s="91" t="s">
-        <v>545</v>
+      <c r="D39" s="97" t="s">
+        <v>539</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="101" t="s">
+      <c r="H39" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="98" t="s">
+      <c r="I39" s="91" t="s">
         <v>204</v>
       </c>
       <c r="J39" s="45"/>
@@ -6219,92 +6223,92 @@
     <row r="40" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="86"/>
       <c r="C40" s="86"/>
-      <c r="D40" s="92"/>
+      <c r="D40" s="98"/>
       <c r="E40" s="64" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="86"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="99"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="92"/>
       <c r="J40" s="45"/>
     </row>
     <row r="41" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
-      <c r="D41" s="92"/>
+      <c r="D41" s="98"/>
       <c r="E41" s="71" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G41" s="86"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="99"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="92"/>
       <c r="J41" s="45"/>
     </row>
     <row r="42" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="86"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="92"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="71" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G42" s="86"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="99"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="92"/>
       <c r="J42" s="45"/>
     </row>
     <row r="43" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
-      <c r="D43" s="92"/>
+      <c r="D43" s="98"/>
       <c r="E43" s="71" t="s">
+        <v>543</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="F43" s="33" t="s">
-        <v>555</v>
-      </c>
       <c r="G43" s="86"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="99"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="92"/>
       <c r="J43" s="45"/>
     </row>
     <row r="44" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="86"/>
       <c r="C44" s="86"/>
-      <c r="D44" s="92"/>
+      <c r="D44" s="98"/>
       <c r="E44" s="64" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="86"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="99"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="92"/>
       <c r="J44" s="45"/>
     </row>
     <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="87"/>
       <c r="C45" s="87"/>
-      <c r="D45" s="93"/>
+      <c r="D45" s="99"/>
       <c r="E45" s="64" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G45" s="87"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="100"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="93"/>
       <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="61" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -6315,12 +6319,12 @@
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
     </row>
-    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B47" s="48" t="s">
         <v>137</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
@@ -6330,19 +6334,19 @@
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
     </row>
-    <row r="48" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
         <v>142</v>
       </c>
       <c r="C48" s="75"/>
       <c r="D48" s="33" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>93</v>
@@ -6358,12 +6362,19 @@
   </sheetData>
   <autoFilter ref="B10:J20"/>
   <mergeCells count="35">
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="I39:I45"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
@@ -6380,19 +6391,12 @@
     <mergeCell ref="G39:G45"/>
     <mergeCell ref="H39:H45"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H48">
     <cfRule type="containsText" dxfId="63" priority="510" operator="containsText" text="Not Applicable">
@@ -6513,13 +6517,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -6529,11 +6533,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -6543,55 +6547,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="95"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="96"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="96" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="96" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
@@ -6908,10 +6912,10 @@
         <v>49</v>
       </c>
       <c r="D23" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>495</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>496</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>93</v>
@@ -7333,7 +7337,7 @@
         <v>224</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F41" s="45" t="s">
         <v>93</v>
@@ -7438,7 +7442,7 @@
         <v>82</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E45" s="64" t="s">
         <v>460</v>
@@ -9672,7 +9676,7 @@
     </row>
     <row r="145" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B145" s="48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C145" s="60" t="s">
         <v>342</v>
@@ -9687,7 +9691,7 @@
     </row>
     <row r="146" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B146" s="45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C146" s="45"/>
       <c r="D146" s="33" t="s">
@@ -10022,8 +10026,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10033,22 +10037,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -10056,7 +10060,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="70" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -10067,15 +10071,15 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="68" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L12" s="69"/>
     </row>
-    <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L13" s="70" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3_ENG.xlsx
+++ b/trunk/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3_ENG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\6. Test\Linh tinh\sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="569">
   <si>
     <t>Expected results</t>
   </si>
@@ -2160,12 +2160,39 @@
   <si>
     <t>Testcase passed approximate 100% accordance with the criteria set out in level GOOD (&gt;80%).</t>
   </si>
+  <si>
+    <t>Nguyen Phan Xuan Huy</t>
+  </si>
+  <si>
+    <t>Test Objective</t>
+  </si>
+  <si>
+    <t>Project: Admission system - DeadlineTeam - Mentor: Mr. Bui Minh Phung</t>
+  </si>
+  <si>
+    <t>Project Test lead: Nguyen Phan Xuan Huy</t>
+  </si>
+  <si>
+    <t>Test Specification</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Total Testcase:</t>
+  </si>
+  <si>
+    <t>Done:</t>
+  </si>
+  <si>
+    <t>Remain:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2309,6 +2336,44 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2551,7 +2616,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2610,12 +2675,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2767,6 +2826,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2776,6 +2847,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2784,6 +2858,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2841,6 +2918,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3331,11 +3423,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3344,7 +3436,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
+              <a:rPr lang="en-US"/>
               <a:t>Report</a:t>
             </a:r>
           </a:p>
@@ -3364,11 +3456,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3392,132 +3484,45 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
@@ -3535,11 +3540,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3559,13 +3564,14 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -3651,132 +3657,45 @@
                   <c:idx val="0"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent1">
-                            <a:tint val="50000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="35000">
-                          <a:schemeClr val="accent1">
-                            <a:tint val="37000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
-                            <a:tint val="15000"/>
-                            <a:satMod val="350000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="16200000" scaled="1"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:shade val="95000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="38000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent2">
-                            <a:tint val="50000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="35000">
-                          <a:schemeClr val="accent2">
-                            <a:tint val="37000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent2">
-                            <a:tint val="15000"/>
-                            <a:satMod val="350000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="16200000" scaled="1"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:shade val="95000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="38000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent3">
-                            <a:tint val="50000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="35000">
-                          <a:schemeClr val="accent3">
-                            <a:tint val="37000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent3">
-                            <a:tint val="15000"/>
-                            <a:satMod val="350000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="16200000" scaled="1"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
                       <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:shade val="95000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="38000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:dPt>
                 <c:dLbls>
@@ -3797,8 +3716,8 @@
                         <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
-                              <a:lumMod val="65000"/>
-                              <a:lumOff val="35000"/>
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
                             </a:schemeClr>
                           </a:solidFill>
                           <a:latin typeface="+mn-lt"/>
@@ -3818,13 +3737,14 @@
                   <c:showLeaderLines val="1"/>
                   <c:leaderLines>
                     <c:spPr>
-                      <a:ln w="9525">
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="35000"/>
                             <a:lumOff val="65000"/>
                           </a:schemeClr>
                         </a:solidFill>
+                        <a:round/>
                       </a:ln>
                       <a:effectLst/>
                     </c:spPr>
@@ -3896,7 +3816,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3911,11 +3831,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4005,18 +3925,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4024,8 +3944,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4046,7 +3966,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4070,8 +3990,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4105,51 +4025,50 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr/>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="15875" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4161,33 +4080,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4204,18 +4120,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4225,7 +4143,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4234,13 +4152,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4249,17 +4168,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4268,16 +4187,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -4286,15 +4206,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4313,16 +4239,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4331,17 +4258,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4350,16 +4277,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4369,8 +4297,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4380,7 +4308,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4388,7 +4316,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4397,21 +4325,10 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4419,17 +4336,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4439,26 +4356,27 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4468,8 +4386,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4479,19 +4397,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4501,8 +4420,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4512,8 +4431,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4522,21 +4447,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>362570</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>36010</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1113953</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>140785</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8175701" cy="937629"/>
+    <xdr:ext cx="184731" cy="937629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886945" y="417010"/>
-          <a:ext cx="8175701" cy="937629"/>
+          <a:off x="10724678" y="626560"/>
+          <a:ext cx="184731" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4550,44 +4475,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Admission</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0" baseline="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> System - Sprint 3</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
             <a:ln w="6600">
               <a:solidFill>
@@ -5030,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5041,7 +4928,7 @@
     <col min="3" max="3" width="24.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="15" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="15" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -5077,11 +4964,11 @@
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -5143,66 +5030,76 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="19">
+      <c r="B18" s="112">
+        <v>41745</v>
+      </c>
+      <c r="C18" s="109">
         <v>1</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19" t="s">
-        <v>16</v>
+      <c r="E18" s="111"/>
+      <c r="F18" s="109" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="112">
+        <v>41748</v>
+      </c>
+      <c r="C19" s="109">
+        <v>2</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>565</v>
+      </c>
+      <c r="E19" s="111"/>
+      <c r="F19" s="109" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="109"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="109"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="109"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="109"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="109"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5284,7 +5181,7 @@
       <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -5300,7 +5197,7 @@
       <c r="A9" s="6">
         <v>23</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2"/>
@@ -5310,7 +5207,7 @@
       <c r="A10" s="6">
         <v>24</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2"/>
@@ -5320,7 +5217,7 @@
       <c r="A11" s="6">
         <v>25</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -5334,7 +5231,7 @@
       <c r="A12" s="6">
         <v>26</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -5348,7 +5245,7 @@
       <c r="A13" s="6">
         <v>27</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5362,7 +5259,7 @@
       <c r="A14" s="6">
         <v>28</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3"/>
@@ -5372,7 +5269,7 @@
       <c r="A15" s="6">
         <v>29</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="3"/>
@@ -5382,7 +5279,7 @@
       <c r="A16" s="6">
         <v>30</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3"/>
@@ -5398,186 +5295,210 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A4:D27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="35" customWidth="1"/>
-    <col min="2" max="2" width="53" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="11" style="33" customWidth="1"/>
+    <col min="2" max="2" width="53" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" s="57" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+    </row>
+    <row r="4" spans="1:4" s="55" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="str">
+      <c r="A5" s="87" t="str">
         <f>'Testcase Specification'!B11</f>
         <v>Create index</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="74" t="str">
+      <c r="B6" s="72" t="str">
         <f>'Testcase Specification'!C12</f>
         <v>Create index</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="76" t="s">
         <v>521</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="72"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="str">
+      <c r="A7" s="87" t="str">
         <f>'Testcase Specification'!B14</f>
         <v>Update index</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="76" t="str">
+      <c r="B8" s="74" t="str">
         <f>'Testcase Specification'!C15</f>
         <v>Update index</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="76" t="s">
         <v>521</v>
       </c>
-      <c r="D8" s="74"/>
+      <c r="D8" s="72"/>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="87" t="s">
         <v>500</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
     </row>
     <row r="10" spans="1:4" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>501</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="str">
+      <c r="A11" s="87" t="str">
         <f>'Testcase Specification'!B18</f>
         <v>Send index to DDS</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="74" t="str">
+      <c r="B12" s="72" t="str">
         <f>'Testcase Specification'!C19</f>
         <v>Send index to DDS</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="76" t="s">
         <v>521</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="72"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="str">
+      <c r="A13" s="87" t="str">
         <f>'Testcase Specification'!B21</f>
         <v>Config : centralization &amp; dispersal</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="78" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="76" t="s">
         <v>521</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="72"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="str">
+      <c r="A15" s="87" t="str">
         <f>'Testcase Specification'!B23</f>
         <v>User management</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="B16" s="42" t="str">
+      <c r="B16" s="40" t="str">
         <f>'Testcase Specification'!C24</f>
         <v>Manage user authority</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="42" t="str">
+      <c r="B17" s="40" t="str">
         <f>'Testcase Specification'!C28</f>
         <v>Display functions follow user's author</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="str">
+      <c r="A18" s="87" t="str">
         <f>'Testcase Specification'!B37</f>
         <v>Register</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
     </row>
     <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="40" t="s">
         <v>129</v>
       </c>
       <c r="B19" s="7" t="str">
@@ -5587,54 +5508,55 @@
       <c r="C19" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="str">
+      <c r="A20" s="87" t="str">
         <f>'Testcase Specification'!B46</f>
         <v>Send answer</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="40" t="str">
         <f>'Testcase Specification'!C47</f>
         <v>Send answer</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="85" t="s">
         <v>509</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="86"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="75" t="s">
         <v>510</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="75" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="75" t="s">
         <v>512</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="75" t="s">
         <v>513</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A7:D7"/>
@@ -5658,710 +5580,750 @@
   </sheetPr>
   <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="38"/>
-    <col min="3" max="3" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="2" width="9.140625" style="36"/>
+    <col min="3" max="3" width="10.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="36" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="54">
+      <c r="B2" s="105" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="52">
         <f>COUNTIF(I11:I48,"&gt;a0")</f>
         <v>5</v>
       </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="54">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="52">
         <f>SUM(D5:D6)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="63"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="54">
+      <c r="A4" s="104"/>
+      <c r="B4" s="105" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="52">
         <f>D2-D3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="102" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="54">
+      <c r="C5" s="106"/>
+      <c r="D5" s="52">
         <f>COUNTIF(H11:H48,"Passed")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="102" t="s">
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="104"/>
+      <c r="B6" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="54">
+      <c r="C6" s="106"/>
+      <c r="D6" s="52">
         <f>COUNTIF(H11:H36,"Failed")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="102" t="s">
+      <c r="E6" s="78" t="s">
+        <v>562</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="104"/>
+      <c r="B7" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="54">
+      <c r="C7" s="106"/>
+      <c r="D7" s="52">
         <f>COUNTIF(H11:H20,"Block")</f>
         <v>0</v>
       </c>
+      <c r="E7" s="78" t="s">
+        <v>563</v>
+      </c>
+      <c r="F7" s="80"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="103" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="55">
+      <c r="C8" s="107"/>
+      <c r="D8" s="53">
         <f>1-(D4/D2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:10" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="41" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>506</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="47" t="s">
         <v>506</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="59" t="s">
         <v>500</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="59" t="s">
         <v>508</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="44"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="98" t="s">
         <v>505</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="97" t="s">
+      <c r="C25" s="89"/>
+      <c r="D25" s="101" t="s">
         <v>526</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="85" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="88" t="s">
+      <c r="H25" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="91" t="s">
+      <c r="I25" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="85"/>
+      <c r="J25" s="89"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="95"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="33" t="s">
+      <c r="B26" s="99"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="86"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="90"/>
     </row>
     <row r="27" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="33" t="s">
+      <c r="B27" s="100"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="G27" s="87"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="87"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="91"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="44"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="94" t="s">
+      <c r="C29" s="89"/>
+      <c r="D29" s="98" t="s">
         <v>531</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="85" t="s">
+      <c r="F29" s="43"/>
+      <c r="G29" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="88" t="s">
+      <c r="H29" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="91" t="s">
+      <c r="I29" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="85"/>
+      <c r="J29" s="89"/>
     </row>
     <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="95"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="33" t="s">
+      <c r="B30" s="99"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="G30" s="86"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="86"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="90"/>
     </row>
     <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="95"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="33" t="s">
+      <c r="B31" s="99"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="31" t="s">
         <v>535</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="86"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="96"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="45" t="s">
+      <c r="B32" s="100"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="87"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="91"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="94" t="s">
+      <c r="C33" s="89"/>
+      <c r="D33" s="98" t="s">
         <v>532</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="85" t="s">
+      <c r="F33" s="43"/>
+      <c r="G33" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="88" t="s">
+      <c r="H33" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="91" t="s">
+      <c r="I33" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="J33" s="85"/>
+      <c r="J33" s="89"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="95"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="33" t="s">
+      <c r="B34" s="99"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="G34" s="86"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="86"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="90"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="95"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="33" t="s">
+      <c r="B35" s="99"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="31" t="s">
         <v>535</v>
       </c>
-      <c r="F35" s="54">
+      <c r="F35" s="52">
         <v>123456</v>
       </c>
-      <c r="G35" s="86"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="86"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="90"/>
     </row>
     <row r="36" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="96"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="45" t="s">
+      <c r="B36" s="100"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="31" t="s">
         <v>538</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="87"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="91"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="59" t="s">
         <v>520</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="97" t="s">
+      <c r="C39" s="89"/>
+      <c r="D39" s="101" t="s">
         <v>539</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="62" t="s">
         <v>540</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="85" t="s">
+      <c r="F39" s="31"/>
+      <c r="G39" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="88" t="s">
+      <c r="H39" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="91" t="s">
+      <c r="I39" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="J39" s="45"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="64" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="62" t="s">
         <v>541</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="45"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="71" t="s">
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="69" t="s">
         <v>542</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="31" t="s">
         <v>547</v>
       </c>
-      <c r="G41" s="86"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="45"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="71" t="s">
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="31" t="s">
         <v>548</v>
       </c>
-      <c r="G42" s="86"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="45"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="71" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="31" t="s">
         <v>549</v>
       </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="45"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="64" t="s">
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="62" t="s">
         <v>544</v>
       </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="45"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="64" t="s">
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="62" t="s">
         <v>545</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="G45" s="87"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="45"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="59" t="s">
         <v>519</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
     </row>
     <row r="47" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="49"/>
     </row>
     <row r="48" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="75"/>
-      <c r="D48" s="33" t="s">
+      <c r="C48" s="73"/>
+      <c r="D48" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="33" t="s">
+      <c r="I48" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="45"/>
+      <c r="J48" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J20"/>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="D33:D36"/>
     <mergeCell ref="B39:B45"/>
@@ -6391,6 +6353,7 @@
     <mergeCell ref="G39:G45"/>
     <mergeCell ref="H39:H45"/>
     <mergeCell ref="B33:B36"/>
+    <mergeCell ref="E2:J4"/>
     <mergeCell ref="J25:J27"/>
     <mergeCell ref="J29:J32"/>
     <mergeCell ref="J33:J36"/>
@@ -6505,3310 +6468,3310 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="38"/>
-    <col min="3" max="3" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="38"/>
-    <col min="7" max="7" width="30" style="38" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="38"/>
-    <col min="9" max="9" width="13" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="2" width="9.140625" style="36"/>
+    <col min="3" max="3" width="10.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="36"/>
+    <col min="7" max="7" width="30" style="36" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="36"/>
+    <col min="9" max="9" width="13" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="54">
+      <c r="C2" s="105"/>
+      <c r="D2" s="52">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="54" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="54">
+      <c r="C3" s="105"/>
+      <c r="D3" s="52">
         <f>SUM(D5:D6)</f>
         <v>94</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="61" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="54">
+      <c r="C4" s="105"/>
+      <c r="D4" s="52">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="54">
+      <c r="C5" s="106"/>
+      <c r="D5" s="52">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="54">
+      <c r="C6" s="106"/>
+      <c r="D6" s="52">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="102" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="54">
+      <c r="C7" s="106"/>
+      <c r="D7" s="52">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="103" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="55">
+      <c r="C8" s="107"/>
+      <c r="D8" s="53">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:10" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="41" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="44">
         <v>44</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>237</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="45"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="44">
         <v>45</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="45"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="44">
         <v>60</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="31" t="s">
         <v>216</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="44">
         <v>61</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="31" t="s">
         <v>218</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="44">
         <v>62</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="31" t="s">
         <v>223</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="45"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="44">
         <v>63</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="31" t="s">
         <v>224</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="45"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="44">
         <v>46</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="44">
         <v>47</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J22" s="45"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="44">
         <v>49</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="44">
         <v>65</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="44">
         <v>66</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J27" s="45"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="44">
         <v>67</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J28" s="45"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="44">
         <v>71</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J29" s="45"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="44">
         <v>68</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J30" s="45"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="44">
         <v>69</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J31" s="45"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="44">
         <v>70</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="H32" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="33" t="s">
+      <c r="I32" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J32" s="45"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="51"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="44">
         <v>73</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="33" t="s">
+      <c r="I35" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J35" s="45"/>
+      <c r="J35" s="43"/>
     </row>
     <row r="36" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="44">
         <v>74</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J36" s="45"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="44">
         <v>75</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="33" t="s">
+      <c r="I37" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="45"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="44">
         <v>76</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H38" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J38" s="45"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="44">
         <v>77</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J40" s="45"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="44">
         <v>78</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J41" s="45"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="44">
         <v>79</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="I42" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J42" s="45"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="44">
         <v>80</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="H43" s="40" t="s">
+      <c r="H43" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I43" s="33" t="s">
+      <c r="I43" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J43" s="45"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="44">
         <v>81</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="F44" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I44" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J44" s="45"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="44">
         <v>82</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="33" t="s">
+      <c r="F45" s="43"/>
+      <c r="G45" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J45" s="45"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="44">
         <v>83</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="E46" s="64" t="s">
+      <c r="E46" s="62" t="s">
         <v>464</v>
       </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="33" t="s">
+      <c r="F46" s="43"/>
+      <c r="G46" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J46" s="45"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
     </row>
     <row r="48" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="51"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="49"/>
     </row>
     <row r="49" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="44">
         <v>85</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F49" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="33" t="s">
+      <c r="I49" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J49" s="45"/>
+      <c r="J49" s="43"/>
     </row>
     <row r="50" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
     </row>
     <row r="51" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="51"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="49"/>
     </row>
     <row r="52" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="44">
         <v>50</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I52" s="33" t="s">
+      <c r="I52" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J52" s="45"/>
+      <c r="J52" s="43"/>
     </row>
     <row r="53" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="44">
         <v>86</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I53" s="33" t="s">
+      <c r="I53" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J53" s="45"/>
+      <c r="J53" s="43"/>
     </row>
     <row r="54" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="44">
         <v>87</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F54" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="40" t="s">
+      <c r="H54" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I54" s="33" t="s">
+      <c r="I54" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J54" s="45"/>
+      <c r="J54" s="43"/>
     </row>
     <row r="55" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="44">
         <v>88</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="F55" s="45" t="s">
+      <c r="F55" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H55" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I55" s="33" t="s">
+      <c r="I55" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J55" s="45"/>
+      <c r="J55" s="43"/>
     </row>
     <row r="56" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="44">
         <v>89</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="F56" s="45" t="s">
+      <c r="F56" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="33" t="s">
+      <c r="G56" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H56" s="40" t="s">
+      <c r="H56" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="33" t="s">
+      <c r="I56" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J56" s="45"/>
+      <c r="J56" s="43"/>
     </row>
     <row r="57" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C57" s="44">
         <v>90</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="F57" s="45" t="s">
+      <c r="F57" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G57" s="33" t="s">
+      <c r="G57" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I57" s="33" t="s">
+      <c r="I57" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J57" s="45"/>
+      <c r="J57" s="43"/>
     </row>
     <row r="58" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="44">
         <v>91</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="F58" s="45" t="s">
+      <c r="F58" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G58" s="33" t="s">
+      <c r="G58" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="33" t="s">
+      <c r="I58" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J58" s="45"/>
+      <c r="J58" s="43"/>
     </row>
     <row r="59" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="C59" s="46">
+      <c r="C59" s="44">
         <v>92</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="F59" s="45" t="s">
+      <c r="F59" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G59" s="33" t="s">
+      <c r="G59" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H59" s="40" t="s">
+      <c r="H59" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="33" t="s">
+      <c r="I59" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J59" s="45"/>
+      <c r="J59" s="43"/>
     </row>
     <row r="60" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="49"/>
     </row>
     <row r="61" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="44">
         <v>51</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="45" t="s">
+      <c r="F61" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G61" s="33" t="s">
+      <c r="G61" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I61" s="33" t="s">
+      <c r="I61" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J61" s="45"/>
+      <c r="J61" s="43"/>
     </row>
     <row r="62" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="46">
+      <c r="C62" s="44">
         <v>52</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="45" t="s">
+      <c r="F62" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="H62" s="40" t="s">
+      <c r="H62" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I62" s="33" t="s">
+      <c r="I62" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J62" s="45"/>
+      <c r="J62" s="43"/>
     </row>
     <row r="63" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C63" s="46">
+      <c r="C63" s="44">
         <v>53</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="F63" s="45" t="s">
+      <c r="F63" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G63" s="33" t="s">
+      <c r="G63" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I63" s="33" t="s">
+      <c r="I63" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J63" s="45"/>
+      <c r="J63" s="43"/>
     </row>
     <row r="64" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="44">
         <v>93</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="F64" s="45" t="s">
+      <c r="F64" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G64" s="33" t="s">
+      <c r="G64" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H64" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I64" s="33" t="s">
+      <c r="I64" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="45"/>
+      <c r="J64" s="43"/>
     </row>
     <row r="65" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="51"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="49"/>
     </row>
     <row r="67" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="44">
         <v>54</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="45" t="s">
+      <c r="F67" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G67" s="62" t="s">
+      <c r="G67" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="H67" s="40" t="s">
+      <c r="H67" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I67" s="33" t="s">
+      <c r="I67" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="45"/>
+      <c r="J67" s="43"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C68" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="51"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="49"/>
     </row>
     <row r="69" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="46">
+      <c r="C69" s="44">
         <v>55</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="45" t="s">
+      <c r="F69" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="H69" s="40" t="s">
+      <c r="H69" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I69" s="33" t="s">
+      <c r="I69" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J69" s="45"/>
+      <c r="J69" s="43"/>
     </row>
     <row r="70" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="44">
         <v>94</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E70" s="33" t="s">
+      <c r="E70" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="45" t="s">
+      <c r="F70" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H70" s="40" t="s">
+      <c r="H70" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I70" s="33" t="s">
+      <c r="I70" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J70" s="45"/>
+      <c r="J70" s="43"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="51"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="49"/>
     </row>
     <row r="73" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="44">
         <v>57</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="F73" s="45" t="s">
+      <c r="F73" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G73" s="33" t="s">
+      <c r="G73" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H73" s="40" t="s">
+      <c r="H73" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I73" s="33" t="s">
+      <c r="I73" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J73" s="45"/>
+      <c r="J73" s="43"/>
     </row>
     <row r="74" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="46">
+      <c r="C74" s="44">
         <v>58</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="F74" s="45" t="s">
+      <c r="F74" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G74" s="33" t="s">
+      <c r="G74" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="H74" s="40" t="s">
+      <c r="H74" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I74" s="33" t="s">
+      <c r="I74" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J74" s="45"/>
+      <c r="J74" s="43"/>
     </row>
     <row r="75" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="46">
+      <c r="C75" s="44">
         <v>59</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="45" t="s">
+      <c r="F75" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G75" s="33" t="s">
+      <c r="G75" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="H75" s="40" t="s">
+      <c r="H75" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I75" s="33" t="s">
+      <c r="I75" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J75" s="45"/>
+      <c r="J75" s="43"/>
     </row>
     <row r="76" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="61" t="s">
+      <c r="B76" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="51"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="49"/>
     </row>
     <row r="78" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="46">
+      <c r="C78" s="44">
         <v>95</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="E78" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="F78" s="45" t="s">
+      <c r="F78" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="H78" s="40" t="s">
+      <c r="H78" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I78" s="33" t="s">
+      <c r="I78" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J78" s="45"/>
+      <c r="J78" s="43"/>
     </row>
     <row r="79" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="C79" s="46">
+      <c r="C79" s="44">
         <v>96</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E79" s="33" t="s">
+      <c r="E79" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F79" s="45" t="s">
+      <c r="F79" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="H79" s="40" t="s">
+      <c r="H79" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="I79" s="33" t="s">
+      <c r="I79" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="45"/>
+      <c r="J79" s="43"/>
     </row>
     <row r="80" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
     </row>
     <row r="81" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="51"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="49"/>
     </row>
     <row r="82" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="C82" s="46">
+      <c r="C82" s="44">
         <v>97</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="33" t="s">
+      <c r="E82" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F82" s="45" t="s">
+      <c r="F82" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="G82" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="H82" s="40" t="s">
+      <c r="H82" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I82" s="33" t="s">
+      <c r="I82" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="45"/>
+      <c r="J82" s="43"/>
     </row>
     <row r="83" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="C83" s="46">
+      <c r="C83" s="44">
         <v>98</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="45" t="s">
+      <c r="F83" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G83" s="62" t="s">
+      <c r="G83" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="H83" s="40" t="s">
+      <c r="H83" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="I83" s="33" t="s">
+      <c r="I83" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="45"/>
+      <c r="J83" s="43"/>
     </row>
     <row r="84" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="51"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="49"/>
     </row>
     <row r="86" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="C86" s="46">
+      <c r="C86" s="44">
         <v>99</v>
       </c>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="E86" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F86" s="45" t="s">
+      <c r="F86" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="H86" s="40" t="s">
+      <c r="H86" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I86" s="33" t="s">
+      <c r="I86" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J86" s="45"/>
+      <c r="J86" s="43"/>
     </row>
     <row r="87" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="C87" s="46">
+      <c r="C87" s="44">
         <v>100</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="F87" s="45" t="s">
+      <c r="F87" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G87" s="33" t="s">
+      <c r="G87" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="H87" s="40" t="s">
+      <c r="H87" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I87" s="33" t="s">
+      <c r="I87" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J87" s="45"/>
+      <c r="J87" s="43"/>
     </row>
     <row r="88" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="C88" s="46">
+      <c r="C88" s="44">
         <v>101</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="E88" s="33" t="s">
+      <c r="E88" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F88" s="45" t="s">
+      <c r="F88" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="H88" s="40" t="s">
+      <c r="H88" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I88" s="33" t="s">
+      <c r="I88" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J88" s="45"/>
+      <c r="J88" s="43"/>
     </row>
     <row r="89" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="48" t="s">
+      <c r="B89" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="51"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="49"/>
     </row>
     <row r="90" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="C90" s="73">
+      <c r="C90" s="71">
         <v>102</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="F90" s="45" t="s">
+      <c r="F90" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="G90" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="H90" s="40" t="s">
+      <c r="H90" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I90" s="33" t="s">
+      <c r="I90" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J90" s="45"/>
+      <c r="J90" s="43"/>
     </row>
     <row r="91" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="73">
+      <c r="C91" s="71">
         <v>103</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="E91" s="33" t="s">
+      <c r="E91" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="F91" s="45" t="s">
+      <c r="F91" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="H91" s="40" t="s">
+      <c r="H91" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I91" s="33" t="s">
+      <c r="I91" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J91" s="45"/>
+      <c r="J91" s="43"/>
     </row>
     <row r="92" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="C92" s="73">
+      <c r="C92" s="71">
         <v>104</v>
       </c>
-      <c r="D92" s="33" t="s">
+      <c r="D92" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="E92" s="33" t="s">
+      <c r="E92" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="F92" s="45" t="s">
+      <c r="F92" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G92" s="33" t="s">
+      <c r="G92" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="H92" s="40" t="s">
+      <c r="H92" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I92" s="33" t="s">
+      <c r="I92" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J92" s="45"/>
+      <c r="J92" s="43"/>
     </row>
     <row r="93" spans="2:10" ht="150" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="C93" s="73">
+      <c r="C93" s="71">
         <v>105</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F93" s="45" t="s">
+      <c r="F93" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G93" s="33" t="s">
+      <c r="G93" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H93" s="40" t="s">
+      <c r="H93" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I93" s="33" t="s">
+      <c r="I93" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J93" s="45"/>
+      <c r="J93" s="43"/>
     </row>
     <row r="94" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="C94" s="73">
+      <c r="C94" s="71">
         <v>106</v>
       </c>
-      <c r="D94" s="33" t="s">
+      <c r="D94" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E94" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="F94" s="45" t="s">
+      <c r="F94" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G94" s="33" t="s">
+      <c r="G94" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H94" s="40" t="s">
+      <c r="H94" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I94" s="33" t="s">
+      <c r="I94" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J94" s="45"/>
+      <c r="J94" s="43"/>
     </row>
     <row r="95" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="C95" s="73">
+      <c r="C95" s="71">
         <v>107</v>
       </c>
-      <c r="D95" s="33" t="s">
+      <c r="D95" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="E95" s="33" t="s">
+      <c r="E95" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="F95" s="45" t="s">
+      <c r="F95" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G95" s="33" t="s">
+      <c r="G95" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H95" s="40" t="s">
+      <c r="H95" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I95" s="33" t="s">
+      <c r="I95" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="J95" s="45"/>
+      <c r="J95" s="43"/>
     </row>
     <row r="96" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="61" t="s">
+      <c r="B96" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="61"/>
-      <c r="J96" s="61"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
     </row>
     <row r="97" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="48" t="s">
+      <c r="B97" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="51"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="49"/>
     </row>
     <row r="98" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="C98" s="45"/>
-      <c r="D98" s="33" t="s">
+      <c r="C98" s="43"/>
+      <c r="D98" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="E98" s="33" t="s">
+      <c r="E98" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="F98" s="45" t="s">
+      <c r="F98" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G98" s="33" t="s">
+      <c r="G98" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="H98" s="40" t="s">
+      <c r="H98" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I98" s="33" t="s">
+      <c r="I98" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J98" s="45"/>
+      <c r="J98" s="43"/>
     </row>
     <row r="99" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B99" s="45" t="s">
+      <c r="B99" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45" t="s">
+      <c r="C99" s="43"/>
+      <c r="D99" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="F99" s="45" t="s">
+      <c r="F99" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G99" s="33" t="s">
+      <c r="G99" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="H99" s="40" t="s">
+      <c r="H99" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I99" s="33" t="s">
+      <c r="I99" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J99" s="45"/>
+      <c r="J99" s="43"/>
     </row>
     <row r="100" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45" t="s">
+      <c r="C100" s="43"/>
+      <c r="D100" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="E100" s="33" t="s">
+      <c r="E100" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="F100" s="45" t="s">
+      <c r="F100" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G100" s="33" t="s">
+      <c r="G100" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="H100" s="40" t="s">
+      <c r="H100" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I100" s="33" t="s">
+      <c r="I100" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J100" s="45"/>
+      <c r="J100" s="43"/>
     </row>
     <row r="101" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="51"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="49"/>
     </row>
     <row r="102" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="C102" s="45"/>
-      <c r="D102" s="33" t="s">
+      <c r="C102" s="43"/>
+      <c r="D102" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="E102" s="33" t="s">
+      <c r="E102" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="F102" s="45" t="s">
+      <c r="F102" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G102" s="33" t="s">
+      <c r="G102" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="H102" s="40" t="s">
+      <c r="H102" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I102" s="33" t="s">
+      <c r="I102" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J102" s="45"/>
+      <c r="J102" s="43"/>
     </row>
     <row r="103" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45" t="s">
+      <c r="C103" s="43"/>
+      <c r="D103" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="E103" s="33" t="s">
+      <c r="E103" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="F103" s="45" t="s">
+      <c r="F103" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G103" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="H103" s="40" t="s">
+      <c r="H103" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I103" s="33" t="s">
+      <c r="I103" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J103" s="45"/>
+      <c r="J103" s="43"/>
     </row>
     <row r="104" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45" t="s">
+      <c r="C104" s="43"/>
+      <c r="D104" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="E104" s="33" t="s">
+      <c r="E104" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="F104" s="45" t="s">
+      <c r="F104" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G104" s="33" t="s">
+      <c r="G104" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="H104" s="40" t="s">
+      <c r="H104" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I104" s="33" t="s">
+      <c r="I104" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="J104" s="45"/>
+      <c r="J104" s="43"/>
     </row>
     <row r="105" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="61" t="s">
+      <c r="B105" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="61"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="I105" s="61"/>
-      <c r="J105" s="61"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
     </row>
     <row r="106" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="48" t="s">
+      <c r="B106" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="C106" s="60" t="s">
+      <c r="C106" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="D106" s="50"/>
-      <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="51"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="49"/>
     </row>
     <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45" t="s">
+      <c r="C107" s="43"/>
+      <c r="D107" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="E107" s="33" t="s">
+      <c r="E107" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="F107" s="45" t="s">
+      <c r="F107" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G107" s="33" t="s">
+      <c r="G107" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H107" s="40" t="s">
+      <c r="H107" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I107" s="33" t="s">
+      <c r="I107" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J107" s="45"/>
+      <c r="J107" s="43"/>
     </row>
     <row r="108" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="C108" s="45"/>
-      <c r="D108" s="33" t="s">
+      <c r="C108" s="43"/>
+      <c r="D108" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="E108" s="33" t="s">
+      <c r="E108" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="F108" s="45" t="s">
+      <c r="F108" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H108" s="40" t="s">
+      <c r="H108" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I108" s="33" t="s">
+      <c r="I108" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J108" s="45"/>
+      <c r="J108" s="43"/>
     </row>
     <row r="109" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45" t="s">
+      <c r="C109" s="43"/>
+      <c r="D109" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="E109" s="33" t="s">
+      <c r="E109" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="F109" s="45" t="s">
+      <c r="F109" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G109" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H109" s="40" t="s">
+      <c r="H109" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I109" s="33" t="s">
+      <c r="I109" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J109" s="45"/>
+      <c r="J109" s="43"/>
     </row>
     <row r="110" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45" t="s">
+      <c r="C110" s="43"/>
+      <c r="D110" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="E110" s="33" t="s">
+      <c r="E110" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F110" s="45" t="s">
+      <c r="F110" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="H110" s="40" t="s">
+      <c r="H110" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I110" s="33" t="s">
+      <c r="I110" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J110" s="45"/>
+      <c r="J110" s="43"/>
     </row>
     <row r="111" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="C111" s="45"/>
-      <c r="D111" s="33" t="s">
+      <c r="C111" s="43"/>
+      <c r="D111" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="E111" s="33" t="s">
+      <c r="E111" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="F111" s="45" t="s">
+      <c r="F111" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="G111" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="H111" s="40" t="s">
+      <c r="H111" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I111" s="33" t="s">
+      <c r="I111" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J111" s="45"/>
+      <c r="J111" s="43"/>
     </row>
     <row r="112" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45" t="s">
+      <c r="C112" s="43"/>
+      <c r="D112" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="E112" s="33" t="s">
+      <c r="E112" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F112" s="45" t="s">
+      <c r="F112" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G112" s="33" t="s">
+      <c r="G112" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="H112" s="40" t="s">
+      <c r="H112" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I112" s="33" t="s">
+      <c r="I112" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J112" s="45"/>
+      <c r="J112" s="43"/>
     </row>
     <row r="113" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="61" t="s">
+      <c r="B113" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="61"/>
-      <c r="D113" s="61"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="61"/>
-      <c r="I113" s="61"/>
-      <c r="J113" s="61"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="59"/>
     </row>
     <row r="114" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="48" t="s">
+      <c r="B114" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="C114" s="60" t="s">
+      <c r="C114" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50"/>
-      <c r="I114" s="50"/>
-      <c r="J114" s="51"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="48"/>
+      <c r="J114" s="49"/>
     </row>
     <row r="115" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="C115" s="45"/>
-      <c r="D115" s="33" t="s">
+      <c r="C115" s="43"/>
+      <c r="D115" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="E115" s="33" t="s">
+      <c r="E115" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="F115" s="45" t="s">
+      <c r="F115" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G115" s="33" t="s">
+      <c r="G115" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="H115" s="40" t="s">
+      <c r="H115" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="33" t="s">
+      <c r="I115" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J115" s="45"/>
+      <c r="J115" s="43"/>
     </row>
     <row r="116" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="C116" s="45"/>
-      <c r="D116" s="33" t="s">
+      <c r="C116" s="43"/>
+      <c r="D116" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="E116" s="33" t="s">
+      <c r="E116" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="F116" s="45" t="s">
+      <c r="F116" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G116" s="33" t="s">
+      <c r="G116" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="H116" s="40" t="s">
+      <c r="H116" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I116" s="33" t="s">
+      <c r="I116" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J116" s="45"/>
+      <c r="J116" s="43"/>
     </row>
     <row r="117" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="45" t="s">
+      <c r="B117" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="C117" s="45"/>
-      <c r="D117" s="33" t="s">
+      <c r="C117" s="43"/>
+      <c r="D117" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="E117" s="33" t="s">
+      <c r="E117" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F117" s="45" t="s">
+      <c r="F117" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G117" s="33" t="s">
+      <c r="G117" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="H117" s="40" t="s">
+      <c r="H117" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I117" s="33" t="s">
+      <c r="I117" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J117" s="45"/>
+      <c r="J117" s="43"/>
     </row>
     <row r="118" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="48" t="s">
+      <c r="B118" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="C118" s="60" t="s">
+      <c r="C118" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="50"/>
-      <c r="J118" s="51"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="49"/>
     </row>
     <row r="119" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B119" s="45" t="s">
+      <c r="B119" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="33" t="s">
+      <c r="C119" s="43"/>
+      <c r="D119" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="E119" s="33" t="s">
+      <c r="E119" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="F119" s="45" t="s">
+      <c r="F119" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G119" s="33" t="s">
+      <c r="G119" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="H119" s="40" t="s">
+      <c r="H119" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I119" s="33" t="s">
+      <c r="I119" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J119" s="45"/>
+      <c r="J119" s="43"/>
     </row>
     <row r="120" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="C120" s="45"/>
-      <c r="D120" s="33" t="s">
+      <c r="C120" s="43"/>
+      <c r="D120" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="E120" s="33" t="s">
+      <c r="E120" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="F120" s="45" t="s">
+      <c r="F120" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G120" s="33" t="s">
+      <c r="G120" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="H120" s="40" t="s">
+      <c r="H120" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I120" s="33" t="s">
+      <c r="I120" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J120" s="45"/>
+      <c r="J120" s="43"/>
     </row>
     <row r="121" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B121" s="45" t="s">
+      <c r="B121" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="C121" s="45"/>
-      <c r="D121" s="33" t="s">
+      <c r="C121" s="43"/>
+      <c r="D121" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="E121" s="33" t="s">
+      <c r="E121" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="F121" s="45" t="s">
+      <c r="F121" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G121" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="H121" s="40" t="s">
+      <c r="H121" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I121" s="33" t="s">
+      <c r="I121" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J121" s="45"/>
+      <c r="J121" s="43"/>
     </row>
     <row r="122" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="48" t="s">
+      <c r="B122" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="C122" s="60" t="s">
+      <c r="C122" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="50"/>
-      <c r="I122" s="50"/>
-      <c r="J122" s="51"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="49"/>
     </row>
     <row r="123" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B123" s="45" t="s">
+      <c r="B123" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="C123" s="45"/>
-      <c r="D123" s="33" t="s">
+      <c r="C123" s="43"/>
+      <c r="D123" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="E123" s="33" t="s">
+      <c r="E123" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="F123" s="45" t="s">
+      <c r="F123" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G123" s="33" t="s">
+      <c r="G123" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="H123" s="40" t="s">
+      <c r="H123" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I123" s="33" t="s">
+      <c r="I123" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J123" s="45"/>
+      <c r="J123" s="43"/>
     </row>
     <row r="124" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="C124" s="45"/>
-      <c r="D124" s="33" t="s">
+      <c r="C124" s="43"/>
+      <c r="D124" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="E124" s="33" t="s">
+      <c r="E124" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="F124" s="45" t="s">
+      <c r="F124" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G124" s="33" t="s">
+      <c r="G124" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="H124" s="40" t="s">
+      <c r="H124" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I124" s="33" t="s">
+      <c r="I124" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J124" s="45"/>
+      <c r="J124" s="43"/>
     </row>
     <row r="125" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B125" s="45" t="s">
+      <c r="B125" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="C125" s="45"/>
-      <c r="D125" s="33" t="s">
+      <c r="C125" s="43"/>
+      <c r="D125" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="E125" s="33" t="s">
+      <c r="E125" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="F125" s="45" t="s">
+      <c r="F125" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="H125" s="40" t="s">
+      <c r="H125" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I125" s="33" t="s">
+      <c r="I125" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J125" s="45"/>
+      <c r="J125" s="43"/>
     </row>
     <row r="126" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="61" t="s">
+      <c r="B126" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="C126" s="61"/>
-      <c r="D126" s="61"/>
-      <c r="E126" s="61"/>
-      <c r="F126" s="61"/>
-      <c r="G126" s="61"/>
-      <c r="H126" s="61"/>
-      <c r="I126" s="61"/>
-      <c r="J126" s="61"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="59"/>
     </row>
     <row r="127" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="48" t="s">
+      <c r="B127" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="C127" s="60" t="s">
+      <c r="C127" s="58" t="s">
         <v>384</v>
       </c>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
-      <c r="H127" s="50"/>
-      <c r="I127" s="50"/>
-      <c r="J127" s="51"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="48"/>
+      <c r="J127" s="49"/>
     </row>
     <row r="128" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="C128" s="45"/>
-      <c r="D128" s="33" t="s">
+      <c r="C128" s="43"/>
+      <c r="D128" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="E128" s="33" t="s">
+      <c r="E128" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="F128" s="45" t="s">
+      <c r="F128" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G128" s="33" t="s">
+      <c r="G128" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="H128" s="40" t="s">
+      <c r="H128" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I128" s="33" t="s">
+      <c r="I128" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J128" s="45"/>
+      <c r="J128" s="43"/>
     </row>
     <row r="129" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B129" s="45" t="s">
+      <c r="B129" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="C129" s="45"/>
-      <c r="D129" s="33" t="s">
+      <c r="C129" s="43"/>
+      <c r="D129" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="E129" s="33" t="s">
+      <c r="E129" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="F129" s="45" t="s">
+      <c r="F129" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="H129" s="40" t="s">
+      <c r="H129" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I129" s="33" t="s">
+      <c r="I129" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J129" s="45"/>
+      <c r="J129" s="43"/>
     </row>
     <row r="130" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B130" s="45" t="s">
+      <c r="B130" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="C130" s="45"/>
-      <c r="D130" s="33" t="s">
+      <c r="C130" s="43"/>
+      <c r="D130" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="E130" s="33" t="s">
+      <c r="E130" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="F130" s="45" t="s">
+      <c r="F130" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G130" s="33" t="s">
+      <c r="G130" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="H130" s="40" t="s">
+      <c r="H130" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I130" s="33" t="s">
+      <c r="I130" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J130" s="45"/>
+      <c r="J130" s="43"/>
     </row>
     <row r="131" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B131" s="45" t="s">
+      <c r="B131" s="43" t="s">
         <v>452</v>
       </c>
-      <c r="C131" s="45"/>
-      <c r="D131" s="33" t="s">
+      <c r="C131" s="43"/>
+      <c r="D131" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="E131" s="33" t="s">
+      <c r="E131" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="F131" s="45" t="s">
+      <c r="F131" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G131" s="33" t="s">
+      <c r="G131" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="H131" s="40" t="s">
+      <c r="H131" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I131" s="33" t="s">
+      <c r="I131" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J131" s="45"/>
+      <c r="J131" s="43"/>
     </row>
     <row r="132" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="C132" s="45"/>
-      <c r="D132" s="33" t="s">
+      <c r="C132" s="43"/>
+      <c r="D132" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="E132" s="33" t="s">
+      <c r="E132" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="F132" s="45" t="s">
+      <c r="F132" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G132" s="33" t="s">
+      <c r="G132" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="H132" s="40" t="s">
+      <c r="H132" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I132" s="33" t="s">
+      <c r="I132" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J132" s="45"/>
+      <c r="J132" s="43"/>
     </row>
     <row r="133" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="C133" s="45"/>
-      <c r="D133" s="33" t="s">
+      <c r="C133" s="43"/>
+      <c r="D133" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="E133" s="33" t="s">
+      <c r="E133" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="F133" s="45" t="s">
+      <c r="F133" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G133" s="33" t="s">
+      <c r="G133" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="H133" s="40" t="s">
+      <c r="H133" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I133" s="33" t="s">
+      <c r="I133" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J133" s="45"/>
+      <c r="J133" s="43"/>
     </row>
     <row r="134" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B134" s="45" t="s">
+      <c r="B134" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="C134" s="45"/>
-      <c r="D134" s="33" t="s">
+      <c r="C134" s="43"/>
+      <c r="D134" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="E134" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="F134" s="45" t="s">
+      <c r="F134" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="H134" s="40" t="s">
+      <c r="H134" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I134" s="33" t="s">
+      <c r="I134" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J134" s="45"/>
+      <c r="J134" s="43"/>
     </row>
     <row r="135" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B135" s="45" t="s">
+      <c r="B135" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="C135" s="45"/>
-      <c r="D135" s="33" t="s">
+      <c r="C135" s="43"/>
+      <c r="D135" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="E135" s="33" t="s">
+      <c r="E135" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="F135" s="45" t="s">
+      <c r="F135" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="G135" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="H135" s="40" t="s">
+      <c r="H135" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I135" s="33" t="s">
+      <c r="I135" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J135" s="45"/>
+      <c r="J135" s="43"/>
     </row>
     <row r="136" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="C136" s="45"/>
-      <c r="D136" s="33" t="s">
+      <c r="C136" s="43"/>
+      <c r="D136" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="E136" s="33" t="s">
+      <c r="E136" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="F136" s="45" t="s">
+      <c r="F136" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G136" s="33" t="s">
+      <c r="G136" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="H136" s="40" t="s">
+      <c r="H136" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I136" s="33" t="s">
+      <c r="I136" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J136" s="45"/>
+      <c r="J136" s="43"/>
     </row>
     <row r="137" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="C137" s="60" t="s">
+      <c r="C137" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
-      <c r="H137" s="50"/>
-      <c r="I137" s="50"/>
-      <c r="J137" s="51"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="48"/>
+      <c r="I137" s="48"/>
+      <c r="J137" s="49"/>
     </row>
     <row r="138" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B138" s="45" t="s">
+      <c r="B138" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="C138" s="45"/>
-      <c r="D138" s="33" t="s">
+      <c r="C138" s="43"/>
+      <c r="D138" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="E138" s="33" t="s">
+      <c r="E138" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="F138" s="45" t="s">
+      <c r="F138" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G138" s="33" t="s">
+      <c r="G138" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="H138" s="40" t="s">
+      <c r="H138" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I138" s="33" t="s">
+      <c r="I138" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J138" s="45"/>
+      <c r="J138" s="43"/>
     </row>
     <row r="139" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B139" s="45" t="s">
+      <c r="B139" s="43" t="s">
         <v>487</v>
       </c>
-      <c r="C139" s="45"/>
-      <c r="D139" s="33" t="s">
+      <c r="C139" s="43"/>
+      <c r="D139" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="E139" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="F139" s="45" t="s">
+      <c r="F139" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G139" s="33" t="s">
+      <c r="G139" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="H139" s="40" t="s">
+      <c r="H139" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I139" s="33" t="s">
+      <c r="I139" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J139" s="45"/>
+      <c r="J139" s="43"/>
     </row>
     <row r="140" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B140" s="45" t="s">
+      <c r="B140" s="43" t="s">
         <v>488</v>
       </c>
-      <c r="C140" s="45"/>
-      <c r="D140" s="33" t="s">
+      <c r="C140" s="43"/>
+      <c r="D140" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="E140" s="33" t="s">
+      <c r="E140" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="F140" s="45" t="s">
+      <c r="F140" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G140" s="33" t="s">
+      <c r="G140" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="H140" s="40" t="s">
+      <c r="H140" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I140" s="33" t="s">
+      <c r="I140" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J140" s="45"/>
+      <c r="J140" s="43"/>
     </row>
     <row r="141" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B141" s="45" t="s">
+      <c r="B141" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="C141" s="45"/>
-      <c r="D141" s="33" t="s">
+      <c r="C141" s="43"/>
+      <c r="D141" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="E141" s="33" t="s">
+      <c r="E141" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="F141" s="45" t="s">
+      <c r="F141" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G141" s="33" t="s">
+      <c r="G141" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="H141" s="40" t="s">
+      <c r="H141" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I141" s="33" t="s">
+      <c r="I141" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J141" s="45"/>
+      <c r="J141" s="43"/>
     </row>
     <row r="142" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B142" s="45" t="s">
+      <c r="B142" s="43" t="s">
         <v>490</v>
       </c>
-      <c r="C142" s="45"/>
-      <c r="D142" s="33" t="s">
+      <c r="C142" s="43"/>
+      <c r="D142" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="E142" s="33" t="s">
+      <c r="E142" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="F142" s="45" t="s">
+      <c r="F142" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G142" s="33" t="s">
+      <c r="G142" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="H142" s="40" t="s">
+      <c r="H142" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I142" s="33" t="s">
+      <c r="I142" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J142" s="45"/>
+      <c r="J142" s="43"/>
     </row>
     <row r="143" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="43" t="s">
         <v>491</v>
       </c>
-      <c r="C143" s="45"/>
-      <c r="D143" s="33" t="s">
+      <c r="C143" s="43"/>
+      <c r="D143" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="E143" s="33" t="s">
+      <c r="E143" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="F143" s="45" t="s">
+      <c r="F143" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G143" s="33" t="s">
+      <c r="G143" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="H143" s="40" t="s">
+      <c r="H143" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I143" s="33" t="s">
+      <c r="I143" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J143" s="45"/>
+      <c r="J143" s="43"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="61" t="s">
+      <c r="B144" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="61"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="61"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61"/>
-      <c r="I144" s="61"/>
-      <c r="J144" s="61"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="59"/>
+      <c r="F144" s="59"/>
+      <c r="G144" s="59"/>
+      <c r="H144" s="59"/>
+      <c r="I144" s="59"/>
+      <c r="J144" s="59"/>
     </row>
     <row r="145" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="48" t="s">
+      <c r="B145" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="C145" s="60" t="s">
+      <c r="C145" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
-      <c r="G145" s="50"/>
-      <c r="H145" s="50"/>
-      <c r="I145" s="50"/>
-      <c r="J145" s="51"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="48"/>
+      <c r="J145" s="49"/>
     </row>
     <row r="146" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B146" s="45" t="s">
+      <c r="B146" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="C146" s="45"/>
-      <c r="D146" s="33" t="s">
+      <c r="C146" s="43"/>
+      <c r="D146" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="E146" s="33" t="s">
+      <c r="E146" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="F146" s="45" t="s">
+      <c r="F146" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G146" s="33" t="s">
+      <c r="G146" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H146" s="40" t="s">
+      <c r="H146" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="I146" s="33" t="s">
+      <c r="I146" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="J146" s="45"/>
+      <c r="J146" s="43"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="61" t="s">
+      <c r="B147" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="61"/>
-      <c r="D147" s="61"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="61"/>
-      <c r="G147" s="61"/>
-      <c r="H147" s="61"/>
-      <c r="I147" s="61"/>
-      <c r="J147" s="61"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="59"/>
+      <c r="H147" s="59"/>
+      <c r="I147" s="59"/>
+      <c r="J147" s="59"/>
     </row>
     <row r="148" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="48" t="s">
+      <c r="B148" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="C148" s="60"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="59"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="44"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="56"/>
+      <c r="J148" s="42"/>
     </row>
     <row r="149" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="45"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="45"/>
-      <c r="H149" s="40"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="45"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="43"/>
     </row>
     <row r="150" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="40"/>
-      <c r="I150" s="33"/>
-      <c r="J150" s="45"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="43"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="61" t="s">
+      <c r="B151" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C151" s="61"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="61"/>
-      <c r="G151" s="61"/>
-      <c r="H151" s="61"/>
-      <c r="I151" s="61"/>
-      <c r="J151" s="61"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="59"/>
+      <c r="J151" s="59"/>
     </row>
     <row r="152" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="48" t="s">
+      <c r="B152" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="C152" s="60"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="59"/>
-      <c r="I152" s="58"/>
-      <c r="J152" s="44"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="56"/>
+      <c r="J152" s="42"/>
     </row>
     <row r="153" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="45"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="40"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="45"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="43"/>
     </row>
     <row r="154" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="45"/>
-      <c r="C154" s="45"/>
-      <c r="D154" s="45"/>
-      <c r="E154" s="45"/>
-      <c r="F154" s="45"/>
-      <c r="G154" s="45"/>
-      <c r="H154" s="40"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="45"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10026,7 +9989,7 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -10036,49 +9999,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="25" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="25" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="25" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="25" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L7" s="27"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="68" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L9" s="69"/>
+      <c r="L9" s="67"/>
     </row>
     <row r="10" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L10" s="69"/>
+      <c r="L10" s="67"/>
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="66" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L12" s="69"/>
+      <c r="L12" s="67"/>
     </row>
     <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L13" s="70" t="s">
+      <c r="L13" s="68" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10097,163 +10060,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="4.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="28" t="b">
+      <c r="C4" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="28" t="b">
+      <c r="C5" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="28" t="b">
+      <c r="C6" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="29" t="b">
+      <c r="C7" s="27" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="28" t="b">
+      <c r="C11" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>2</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="28" t="b">
+      <c r="C12" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="27">
         <v>3</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="29" t="b">
+      <c r="C13" s="27" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>1</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="28" t="b">
+      <c r="C17" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>2</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="28" t="b">
+      <c r="C18" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>3</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="28" t="b">
+      <c r="C19" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="27">
         <v>4</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="29" t="b">
+      <c r="C20" s="27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10308,21 +10271,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" spans="1:6" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+    <row r="8" spans="1:6" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -10337,10 +10300,10 @@
       <c r="D10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="31" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10357,10 +10320,10 @@
       <c r="D11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10377,10 +10340,10 @@
       <c r="D12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10399,7 +10362,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -10409,7 +10372,7 @@
         <v>49</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="24"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -10419,7 +10382,7 @@
         <v>50</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="25"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -10429,7 +10392,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="25"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="11"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -10438,8 +10401,8 @@
       <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="11"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -10449,7 +10412,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="24"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -10459,7 +10422,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="24"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -10469,7 +10432,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
